--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_386__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_386__Reeval_Halton_Modell_1.1.xlsx
@@ -5990,40 +5990,40 @@
                   <c:v>47.85683059692383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.40830230712891</c:v>
+                  <c:v>46.40829849243164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.21310043334961</c:v>
+                  <c:v>41.21309661865234</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>58.59999084472656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.7584415078163147</c:v>
+                  <c:v>-0.7584390640258789</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.23834228515625</c:v>
+                  <c:v>30.23833847045898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.168155670166016</c:v>
+                  <c:v>7.168154239654541</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>47.76808166503906</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.580101013183594</c:v>
+                  <c:v>5.58010196685791</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>47.73904800415039</c:v>
@@ -6032,67 +6032,67 @@
                   <c:v>47.81673431396484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48.10783767700195</c:v>
+                  <c:v>48.10783386230469</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>40.09990310668945</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>37.44623947143555</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.75411128997803</c:v>
+                  <c:v>11.75411510467529</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2.759764432907104</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51.95036315917969</c:v>
+                  <c:v>51.95036697387695</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>32.07733535766602</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5.524945259094238</c:v>
+                  <c:v>-5.524943828582764</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.690147876739502</c:v>
+                  <c:v>-2.690150260925293</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45.89252090454102</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.801412343978882</c:v>
@@ -6101,103 +6101,103 @@
                   <c:v>21.5789966583252</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.183220148086548</c:v>
+                  <c:v>-2.183221340179443</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>48.82497024536133</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>36.72047805786133</c:v>
+                  <c:v>36.72047424316406</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.3234089314937592</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>36.97673416137695</c:v>
+                  <c:v>36.97673797607422</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.88558006286621</c:v>
+                  <c:v>20.88558769226074</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.281612873077393</c:v>
+                  <c:v>7.281614780426025</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11.82485866546631</c:v>
+                  <c:v>11.82486248016357</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>46.74345779418945</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>38.83371734619141</c:v>
+                  <c:v>38.83371353149414</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>36.3255500793457</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>47.83453369140625</c:v>
+                  <c:v>47.83454132080078</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.703897476196289</c:v>
+                  <c:v>1.703896760940552</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>48.47220611572266</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.6338503956794739</c:v>
+                  <c:v>-0.6338492035865784</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>48.04189300537109</c:v>
+                  <c:v>48.04188919067383</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>36.9742546081543</c:v>
+                  <c:v>36.97425842285156</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>49.23894500732422</c:v>
+                  <c:v>49.23894882202148</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12.23969650268555</c:v>
+                  <c:v>12.2396993637085</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>35.52935028076172</c:v>
+                  <c:v>35.52935409545898</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>47.60036849975586</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42.95100021362305</c:v>
+                  <c:v>42.95099639892578</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>32.0838508605957</c:v>
+                  <c:v>32.08384323120117</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>43.31472015380859</c:v>
@@ -6209,73 +6209,73 @@
                   <c:v>55.62089920043945</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>45.43799209594727</c:v>
+                  <c:v>45.43799591064453</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.079761028289795</c:v>
+                  <c:v>6.079763412475586</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>27.38395309448242</c:v>
+                  <c:v>27.38395118713379</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45.75424957275391</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>33.26853179931641</c:v>
+                  <c:v>33.26853561401367</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.415850639343262</c:v>
+                  <c:v>5.415847778320312</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.62890088558197</c:v>
+                  <c:v>1.628899693489075</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>47.85669326782227</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>44.32330322265625</c:v>
+                  <c:v>44.32329940795898</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45.81764984130859</c:v>
+                  <c:v>45.81765747070312</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1.742264986038208</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.89339447021484</c:v>
+                  <c:v>10.89339160919189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>44.92692184448242</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>48.54636764526367</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>35.99818801879883</c:v>
+                  <c:v>35.9981803894043</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>49.49512100219727</c:v>
@@ -6284,7 +6284,7 @@
                   <c:v>41.05012130737305</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0178382396698</c:v>
+                  <c:v>2.017837047576904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7011,7 +7011,7 @@
         <v>29.3754</v>
       </c>
       <c r="F3">
-        <v>46.40830230712891</v>
+        <v>46.40829849243164</v>
       </c>
       <c r="G3">
         <v>83</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7075,7 +7075,7 @@
         <v>42.1438</v>
       </c>
       <c r="F5">
-        <v>41.21310043334961</v>
+        <v>41.21309661865234</v>
       </c>
       <c r="G5">
         <v>83</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.7584415078163147</v>
+        <v>-0.7584390640258789</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.23834228515625</v>
+        <v>30.23833847045898</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>7.168155670166016</v>
+        <v>7.168154239654541</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.580101013183594</v>
+        <v>5.58010196685791</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>48.10783767700195</v>
+        <v>48.10783386230469</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>11.75411128997803</v>
+        <v>11.75411510467529</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>47.2576</v>
       </c>
       <c r="F28">
-        <v>51.95036315917969</v>
+        <v>51.95036697387695</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>-5.524945259094238</v>
+        <v>-5.524943828582764</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-2.690147876739502</v>
+        <v>-2.690150260925293</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>-2.183220148086548</v>
+        <v>-2.183221340179443</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>33.8124</v>
       </c>
       <c r="F42">
-        <v>36.72047805786133</v>
+        <v>36.72047424316406</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>36.97673416137695</v>
+        <v>36.97673797607422</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>20.88558006286621</v>
+        <v>20.88558769226074</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>7.281612873077393</v>
+        <v>7.281614780426025</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>11.82485866546631</v>
+        <v>11.82486248016357</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>38.83371734619141</v>
+        <v>38.83371353149414</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>47.83453369140625</v>
+        <v>47.83454132080078</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.703897476196289</v>
+        <v>1.703896760940552</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.6338503956794739</v>
+        <v>-0.6338492035865784</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>48.04189300537109</v>
+        <v>48.04188919067383</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>36.9742546081543</v>
+        <v>36.97425842285156</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>49.23894500732422</v>
+        <v>49.23894882202148</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>12.23969650268555</v>
+        <v>12.2396993637085</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>35.52935028076172</v>
+        <v>35.52935409545898</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>42.95100021362305</v>
+        <v>42.95099639892578</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>32.0838508605957</v>
+        <v>32.08384323120117</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>45.43799209594727</v>
+        <v>45.43799591064453</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>6.079761028289795</v>
+        <v>6.079763412475586</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>27.38395309448242</v>
+        <v>27.38395118713379</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>33.26853179931641</v>
+        <v>33.26853561401367</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>5.415850639343262</v>
+        <v>5.415847778320312</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>1.62890088558197</v>
+        <v>1.628899693489075</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>44.32330322265625</v>
+        <v>44.32329940795898</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>35.4484</v>
       </c>
       <c r="F89">
-        <v>45.81764984130859</v>
+        <v>45.81765747070312</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>40.9911</v>
       </c>
       <c r="F92">
-        <v>10.89339447021484</v>
+        <v>10.89339160919189</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>35.99818801879883</v>
+        <v>35.9981803894043</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>2.0178382396698</v>
+        <v>2.017837047576904</v>
       </c>
     </row>
     <row r="102" spans="1:6">
